--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kdr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H2">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I2">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J2">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.399594442798</v>
+        <v>143.0191385</v>
       </c>
       <c r="N2">
-        <v>141.399594442798</v>
+        <v>286.038277</v>
       </c>
       <c r="O2">
-        <v>0.5657928619958436</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P2">
-        <v>0.5657928619958436</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q2">
-        <v>854.637029832542</v>
+        <v>903.0540901707624</v>
       </c>
       <c r="R2">
-        <v>854.637029832542</v>
+        <v>3612.21636068305</v>
       </c>
       <c r="S2">
-        <v>0.2653792792534003</v>
+        <v>0.2609396450313647</v>
       </c>
       <c r="T2">
-        <v>0.2653792792534003</v>
+        <v>0.1767724120123723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H3">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I3">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J3">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.11452145892454</v>
+        <v>0.038432</v>
       </c>
       <c r="N3">
-        <v>3.11452145892454</v>
+        <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.01246236961949179</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P3">
-        <v>0.01246236961949179</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q3">
-        <v>18.82456155192006</v>
+        <v>0.242668045392</v>
       </c>
       <c r="R3">
-        <v>18.82456155192006</v>
+        <v>1.456008272352</v>
       </c>
       <c r="S3">
-        <v>0.005845345336708225</v>
+        <v>7.011951367505551E-05</v>
       </c>
       <c r="T3">
-        <v>0.005845345336708225</v>
+        <v>7.12532330607574E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H4">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I4">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J4">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.93606295157313</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N4">
-        <v>4.93606295157313</v>
+        <v>9.501127</v>
       </c>
       <c r="O4">
-        <v>0.01975104097976753</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P4">
-        <v>0.01975104097976753</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q4">
-        <v>29.83418868082741</v>
+        <v>19.9973972914165</v>
       </c>
       <c r="R4">
-        <v>29.83418868082741</v>
+        <v>119.984383748499</v>
       </c>
       <c r="S4">
-        <v>0.009264021114062035</v>
+        <v>0.005778295904497461</v>
       </c>
       <c r="T4">
-        <v>0.009264021114062035</v>
+        <v>0.005871721624955374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H5">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I5">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J5">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.099109079072</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N5">
-        <v>100.099109079072</v>
+        <v>15.391724</v>
       </c>
       <c r="O5">
-        <v>0.4005341149121445</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P5">
-        <v>0.4005341149121445</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q5">
-        <v>605.0116735435872</v>
+        <v>32.39556947589801</v>
       </c>
       <c r="R5">
-        <v>605.0116735435872</v>
+        <v>194.373416855388</v>
       </c>
       <c r="S5">
-        <v>0.1878663763215952</v>
+        <v>0.009360777490118308</v>
       </c>
       <c r="T5">
-        <v>0.1878663763215952</v>
+        <v>0.009512126156838514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H6">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I6">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J6">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.364777692300393</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N6">
-        <v>0.364777692300393</v>
+        <v>312.62056</v>
       </c>
       <c r="O6">
-        <v>0.001459612492752738</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P6">
-        <v>0.001459612492752738</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q6">
-        <v>2.20476250108973</v>
+        <v>657.9848411441202</v>
       </c>
       <c r="R6">
-        <v>2.20476250108973</v>
+        <v>3947.90904686472</v>
       </c>
       <c r="S6">
-        <v>0.0006846161154271086</v>
+        <v>0.1901262978075867</v>
       </c>
       <c r="T6">
-        <v>0.0006846161154271086</v>
+        <v>0.1932003332402208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.89206141015945</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H7">
-        <v>2.89206141015945</v>
+        <v>12.628437</v>
       </c>
       <c r="I7">
-        <v>0.2244313461790874</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J7">
-        <v>0.2244313461790874</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.399594442798</v>
+        <v>0.427696</v>
       </c>
       <c r="N7">
-        <v>141.399594442798</v>
+        <v>0.855392</v>
       </c>
       <c r="O7">
-        <v>0.5657928619958436</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P7">
-        <v>0.5657928619958436</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q7">
-        <v>408.9363105002127</v>
+        <v>2.700565995576</v>
       </c>
       <c r="R7">
-        <v>408.9363105002127</v>
+        <v>10.802263982304</v>
       </c>
       <c r="S7">
-        <v>0.1269816536762458</v>
+        <v>0.0007803350208359321</v>
       </c>
       <c r="T7">
-        <v>0.1269816536762458</v>
+        <v>0.0005286345192748005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H8">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J8">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.11452145892454</v>
+        <v>143.0191385</v>
       </c>
       <c r="N8">
-        <v>3.11452145892454</v>
+        <v>286.038277</v>
       </c>
       <c r="O8">
-        <v>0.01246236961949179</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P8">
-        <v>0.01246236961949179</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q8">
-        <v>9.007387322469173</v>
+        <v>442.7974071548335</v>
       </c>
       <c r="R8">
-        <v>9.007387322469173</v>
+        <v>2656.784442929001</v>
       </c>
       <c r="S8">
-        <v>0.002796946390283903</v>
+        <v>0.1279473727005016</v>
       </c>
       <c r="T8">
-        <v>0.002796946390283903</v>
+        <v>0.1300160752510127</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H9">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J9">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.93606295157313</v>
+        <v>0.038432</v>
       </c>
       <c r="N9">
-        <v>4.93606295157313</v>
+        <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.01975104097976753</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P9">
-        <v>0.01975104097976753</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q9">
-        <v>14.2753971803624</v>
+        <v>0.118988200672</v>
       </c>
       <c r="R9">
-        <v>14.2753971803624</v>
+        <v>1.070893806048</v>
       </c>
       <c r="S9">
-        <v>0.004432752715527548</v>
+        <v>3.438192593801478E-05</v>
       </c>
       <c r="T9">
-        <v>0.004432752715527548</v>
+        <v>5.240673929853365E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H10">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I10">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J10">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.099109079072</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N10">
-        <v>100.099109079072</v>
+        <v>9.501127</v>
       </c>
       <c r="O10">
-        <v>0.4005341149121445</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P10">
-        <v>0.4005341149121445</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q10">
-        <v>289.4927705589255</v>
+        <v>9.805387924005666</v>
       </c>
       <c r="R10">
-        <v>289.4927705589255</v>
+        <v>88.24849131605099</v>
       </c>
       <c r="S10">
-        <v>0.08989241060038185</v>
+        <v>0.002833290355620945</v>
       </c>
       <c r="T10">
-        <v>0.08989241060038185</v>
+        <v>0.004318650132973036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H11">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I11">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J11">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.364777692300393</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N11">
-        <v>0.364777692300393</v>
+        <v>15.391724</v>
       </c>
       <c r="O11">
-        <v>0.001459612492752738</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P11">
-        <v>0.001459612492752738</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q11">
-        <v>1.054959487188984</v>
+        <v>15.88462343880133</v>
       </c>
       <c r="R11">
-        <v>1.054959487188984</v>
+        <v>142.961610949212</v>
       </c>
       <c r="S11">
-        <v>0.0003275827966483103</v>
+        <v>0.004589900036656646</v>
       </c>
       <c r="T11">
-        <v>0.0003275827966483103</v>
+        <v>0.006996166970432484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.54637513729161</v>
+        <v>3.096071</v>
       </c>
       <c r="H12">
-        <v>2.54637513729161</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I12">
-        <v>0.197605209188074</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J12">
-        <v>0.197605209188074</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>141.399594442798</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N12">
-        <v>141.399594442798</v>
+        <v>312.62056</v>
       </c>
       <c r="O12">
-        <v>0.5657928619958436</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P12">
-        <v>0.5657928619958436</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q12">
-        <v>360.0564117122577</v>
+        <v>322.6318166065867</v>
       </c>
       <c r="R12">
-        <v>360.0564117122577</v>
+        <v>2903.68634945928</v>
       </c>
       <c r="S12">
-        <v>0.1118036168518078</v>
+        <v>0.09322523713416517</v>
       </c>
       <c r="T12">
-        <v>0.1118036168518078</v>
+        <v>0.1420988081744518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.54637513729161</v>
+        <v>3.096071</v>
       </c>
       <c r="H13">
-        <v>2.54637513729161</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I13">
-        <v>0.197605209188074</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J13">
-        <v>0.197605209188074</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11452145892454</v>
+        <v>0.427696</v>
       </c>
       <c r="N13">
-        <v>3.11452145892454</v>
+        <v>0.855392</v>
       </c>
       <c r="O13">
-        <v>0.01246236961949179</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P13">
-        <v>0.01246236961949179</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q13">
-        <v>7.930740007566641</v>
+        <v>1.324177182416</v>
       </c>
       <c r="R13">
-        <v>7.930740007566641</v>
+        <v>7.945063094496</v>
       </c>
       <c r="S13">
-        <v>0.002462629155638774</v>
+        <v>0.0003826241724600637</v>
       </c>
       <c r="T13">
-        <v>0.002462629155638774</v>
+        <v>0.0003888105878959487</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H14">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I14">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J14">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.93606295157313</v>
+        <v>143.0191385</v>
       </c>
       <c r="N14">
-        <v>4.93606295157313</v>
+        <v>286.038277</v>
       </c>
       <c r="O14">
-        <v>0.01975104097976753</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P14">
-        <v>0.01975104097976753</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q14">
-        <v>12.56906797599206</v>
+        <v>3.140652608413833</v>
       </c>
       <c r="R14">
-        <v>12.56906797599206</v>
+        <v>18.843915650483</v>
       </c>
       <c r="S14">
-        <v>0.003902908584489185</v>
+        <v>0.0009074991030175929</v>
       </c>
       <c r="T14">
-        <v>0.003902908584489185</v>
+        <v>0.0009221718991006626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H15">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I15">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J15">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>100.099109079072</v>
+        <v>0.038432</v>
       </c>
       <c r="N15">
-        <v>100.099109079072</v>
+        <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.4005341149121445</v>
+        <v>0.0001501310188268283</v>
       </c>
       <c r="P15">
-        <v>0.4005341149121445</v>
+        <v>0.000184614682244788</v>
       </c>
       <c r="Q15">
-        <v>254.8898826239898</v>
+        <v>0.0008439539093333333</v>
       </c>
       <c r="R15">
-        <v>254.8898826239898</v>
+        <v>0.007595585183999999</v>
       </c>
       <c r="S15">
-        <v>0.07914762756417439</v>
+        <v>2.43862506046155E-07</v>
       </c>
       <c r="T15">
-        <v>0.07914762756417439</v>
+        <v>3.717080538794813E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H16">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I16">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J16">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.364777692300393</v>
+        <v>3.167042333333333</v>
       </c>
       <c r="N16">
-        <v>0.364777692300393</v>
+        <v>9.501127</v>
       </c>
       <c r="O16">
-        <v>0.001459612492752738</v>
+        <v>0.01237175510436691</v>
       </c>
       <c r="P16">
-        <v>0.001459612492752738</v>
+        <v>0.015213429278313</v>
       </c>
       <c r="Q16">
-        <v>0.9288608463123298</v>
+        <v>0.06954719395922222</v>
       </c>
       <c r="R16">
-        <v>0.9288608463123298</v>
+        <v>0.6259247456329999</v>
       </c>
       <c r="S16">
-        <v>0.0002884270319639309</v>
+        <v>2.009582848045714E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002884270319639309</v>
+        <v>3.063111839813866E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.40361113884152</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H17">
-        <v>1.40361113884152</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I17">
-        <v>0.1089238064916458</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J17">
-        <v>0.1089238064916458</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>141.399594442798</v>
+        <v>5.130574666666667</v>
       </c>
       <c r="N17">
-        <v>141.399594442798</v>
+        <v>15.391724</v>
       </c>
       <c r="O17">
-        <v>0.5657928619958436</v>
+        <v>0.0200421107898049</v>
       </c>
       <c r="P17">
-        <v>0.5657928619958436</v>
+        <v>0.02464559252237265</v>
       </c>
       <c r="Q17">
-        <v>198.4700457875848</v>
+        <v>0.1126657094884444</v>
       </c>
       <c r="R17">
-        <v>198.4700457875848</v>
+        <v>1.013991385396</v>
       </c>
       <c r="S17">
-        <v>0.06162831221438973</v>
+        <v>3.255502694812266E-05</v>
       </c>
       <c r="T17">
-        <v>0.06162831221438973</v>
+        <v>4.962208380073988E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.40361113884152</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H18">
-        <v>1.40361113884152</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I18">
-        <v>0.1089238064916458</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J18">
-        <v>0.1089238064916458</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11452145892454</v>
+        <v>104.2068533333333</v>
       </c>
       <c r="N18">
-        <v>3.11452145892454</v>
+        <v>312.62056</v>
       </c>
       <c r="O18">
-        <v>0.01246236961949179</v>
+        <v>0.4070743406450668</v>
       </c>
       <c r="P18">
-        <v>0.01246236961949179</v>
+        <v>0.5005754349464654</v>
       </c>
       <c r="Q18">
-        <v>4.371577011907426</v>
+        <v>2.288347763582222</v>
       </c>
       <c r="R18">
-        <v>4.371577011907426</v>
+        <v>20.59512987224</v>
       </c>
       <c r="S18">
-        <v>0.001357448736860889</v>
+        <v>0.0006612235741322543</v>
       </c>
       <c r="T18">
-        <v>0.001357448736860889</v>
+        <v>0.001007871738484541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.40361113884152</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H19">
-        <v>1.40361113884152</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I19">
-        <v>0.1089238064916458</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J19">
-        <v>0.1089238064916458</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.93606295157313</v>
+        <v>0.427696</v>
       </c>
       <c r="N19">
-        <v>4.93606295157313</v>
+        <v>0.855392</v>
       </c>
       <c r="O19">
-        <v>0.01975104097976753</v>
+        <v>0.001670754481373834</v>
       </c>
       <c r="P19">
-        <v>0.01975104097976753</v>
+        <v>0.001369673902604892</v>
       </c>
       <c r="Q19">
-        <v>6.928312940850996</v>
+        <v>0.009392061594666667</v>
       </c>
       <c r="R19">
-        <v>6.928312940850996</v>
+        <v>0.05635236956799999</v>
       </c>
       <c r="S19">
-        <v>0.002151358565688765</v>
+        <v>2.713858721531961E-06</v>
       </c>
       <c r="T19">
-        <v>0.002151358565688765</v>
+        <v>2.75773743776087E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H20">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I20">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J20">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>100.099109079072</v>
+        <v>143.0191385</v>
       </c>
       <c r="N20">
-        <v>100.099109079072</v>
+        <v>286.038277</v>
       </c>
       <c r="O20">
-        <v>0.4005341149121445</v>
+        <v>0.5586909079605606</v>
       </c>
       <c r="P20">
-        <v>0.4005341149121445</v>
+        <v>0.4580112546679992</v>
       </c>
       <c r="Q20">
-        <v>140.5002244914978</v>
+        <v>366.6162607648695</v>
       </c>
       <c r="R20">
-        <v>140.5002244914978</v>
+        <v>2199.697564589217</v>
       </c>
       <c r="S20">
-        <v>0.04362770042599305</v>
+        <v>0.1059346477558411</v>
       </c>
       <c r="T20">
-        <v>0.04362770042599305</v>
+        <v>0.1076474400654806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.563407</v>
+      </c>
+      <c r="H21">
+        <v>7.690221</v>
+      </c>
+      <c r="I21">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J21">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.038432</v>
+      </c>
+      <c r="N21">
+        <v>0.115296</v>
+      </c>
+      <c r="O21">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P21">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q21">
+        <v>0.09851685782400001</v>
+      </c>
+      <c r="R21">
+        <v>0.886651720416</v>
+      </c>
+      <c r="S21">
+        <v>2.846668232834087E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.339041396823144E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.563407</v>
+      </c>
+      <c r="H22">
+        <v>7.690221</v>
+      </c>
+      <c r="I22">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J22">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.501127</v>
+      </c>
+      <c r="O22">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P22">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q22">
+        <v>8.118418486563</v>
+      </c>
+      <c r="R22">
+        <v>73.065766379067</v>
+      </c>
+      <c r="S22">
+        <v>0.002345836491033708</v>
+      </c>
+      <c r="T22">
+        <v>0.003575647322498099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.563407</v>
+      </c>
+      <c r="H23">
+        <v>7.690221</v>
+      </c>
+      <c r="I23">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J23">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N23">
+        <v>15.391724</v>
+      </c>
+      <c r="O23">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P23">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q23">
+        <v>13.151751014556</v>
+      </c>
+      <c r="R23">
+        <v>118.365759131004</v>
+      </c>
+      <c r="S23">
+        <v>0.003800229995780428</v>
+      </c>
+      <c r="T23">
+        <v>0.005792510373688273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.563407</v>
+      </c>
+      <c r="H24">
+        <v>7.690221</v>
+      </c>
+      <c r="I24">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J24">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N24">
+        <v>312.62056</v>
+      </c>
+      <c r="O24">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P24">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q24">
+        <v>267.12457728264</v>
+      </c>
+      <c r="R24">
+        <v>2404.12119554376</v>
+      </c>
+      <c r="S24">
+        <v>0.07718628721575796</v>
+      </c>
+      <c r="T24">
+        <v>0.1176513973891578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.563407</v>
+      </c>
+      <c r="H25">
+        <v>7.690221</v>
+      </c>
+      <c r="I25">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J25">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.427696</v>
+      </c>
+      <c r="N25">
+        <v>0.855392</v>
+      </c>
+      <c r="O25">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P25">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q25">
+        <v>1.096358920272</v>
+      </c>
+      <c r="R25">
+        <v>6.578153521632</v>
+      </c>
+      <c r="S25">
+        <v>0.000316795539266811</v>
+      </c>
+      <c r="T25">
+        <v>0.0003219176119302788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5235485</v>
+      </c>
+      <c r="H26">
+        <v>3.047097</v>
+      </c>
+      <c r="I26">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J26">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>143.0191385</v>
+      </c>
+      <c r="N26">
+        <v>286.038277</v>
+      </c>
+      <c r="O26">
+        <v>0.5586909079605606</v>
+      </c>
+      <c r="P26">
+        <v>0.4580112546679992</v>
+      </c>
+      <c r="Q26">
+        <v>217.8965939329672</v>
+      </c>
+      <c r="R26">
+        <v>871.586375731869</v>
+      </c>
+      <c r="S26">
+        <v>0.06296174336983557</v>
+      </c>
+      <c r="T26">
+        <v>0.04265315544003297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.5235485</v>
+      </c>
+      <c r="H27">
+        <v>3.047097</v>
+      </c>
+      <c r="I27">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J27">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.038432</v>
+      </c>
+      <c r="N27">
+        <v>0.115296</v>
+      </c>
+      <c r="O27">
+        <v>0.0001501310188268283</v>
+      </c>
+      <c r="P27">
+        <v>0.000184614682244788</v>
+      </c>
+      <c r="Q27">
+        <v>0.058553015952</v>
+      </c>
+      <c r="R27">
+        <v>0.351318095712</v>
+      </c>
+      <c r="S27">
+        <v>1.691903437937099E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.7192587863386E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.5235485</v>
+      </c>
+      <c r="H28">
+        <v>3.047097</v>
+      </c>
+      <c r="I28">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J28">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.167042333333333</v>
+      </c>
+      <c r="N28">
+        <v>9.501127</v>
+      </c>
+      <c r="O28">
+        <v>0.01237175510436691</v>
+      </c>
+      <c r="P28">
+        <v>0.015213429278313</v>
+      </c>
+      <c r="Q28">
+        <v>4.8251425963865</v>
+      </c>
+      <c r="R28">
+        <v>28.950855578319</v>
+      </c>
+      <c r="S28">
+        <v>0.001394236524734335</v>
+      </c>
+      <c r="T28">
+        <v>0.001416779079488352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.5235485</v>
+      </c>
+      <c r="H29">
+        <v>3.047097</v>
+      </c>
+      <c r="I29">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J29">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.130574666666667</v>
+      </c>
+      <c r="N29">
+        <v>15.391724</v>
+      </c>
+      <c r="O29">
+        <v>0.0200421107898049</v>
+      </c>
+      <c r="P29">
+        <v>0.02464559252237265</v>
+      </c>
+      <c r="Q29">
+        <v>7.816679337538</v>
+      </c>
+      <c r="R29">
+        <v>46.900076025228</v>
+      </c>
+      <c r="S29">
+        <v>0.002258648240301394</v>
+      </c>
+      <c r="T29">
+        <v>0.00229516693761264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="H21">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="I21">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="J21">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="N21">
-        <v>0.364777692300393</v>
-      </c>
-      <c r="O21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="P21">
-        <v>0.001459612492752738</v>
-      </c>
-      <c r="Q21">
-        <v>0.5120060321137362</v>
-      </c>
-      <c r="R21">
-        <v>0.5120060321137362</v>
-      </c>
-      <c r="S21">
-        <v>0.000158986548713388</v>
-      </c>
-      <c r="T21">
-        <v>0.000158986548713388</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.5235485</v>
+      </c>
+      <c r="H30">
+        <v>3.047097</v>
+      </c>
+      <c r="I30">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J30">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>104.2068533333333</v>
+      </c>
+      <c r="N30">
+        <v>312.62056</v>
+      </c>
+      <c r="O30">
+        <v>0.4070743406450668</v>
+      </c>
+      <c r="P30">
+        <v>0.5005754349464654</v>
+      </c>
+      <c r="Q30">
+        <v>158.76419508572</v>
+      </c>
+      <c r="R30">
+        <v>952.58517051432</v>
+      </c>
+      <c r="S30">
+        <v>0.04587529491342467</v>
+      </c>
+      <c r="T30">
+        <v>0.04661702440415048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.5235485</v>
+      </c>
+      <c r="H31">
+        <v>3.047097</v>
+      </c>
+      <c r="I31">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J31">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.427696</v>
+      </c>
+      <c r="N31">
+        <v>0.855392</v>
+      </c>
+      <c r="O31">
+        <v>0.001670754481373834</v>
+      </c>
+      <c r="P31">
+        <v>0.001369673902604892</v>
+      </c>
+      <c r="Q31">
+        <v>0.651615599256</v>
+      </c>
+      <c r="R31">
+        <v>2.606462397024</v>
+      </c>
+      <c r="S31">
+        <v>0.0001882858900894945</v>
+      </c>
+      <c r="T31">
+        <v>0.0001275534460661035</v>
       </c>
     </row>
   </sheetData>
